--- a/data/trans_orig/P16B99-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B99-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEF3F4BF-B179-4B4C-B90C-FF23FE7EC051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1257694-E9AA-437F-8DB4-A12A69B4737C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A7886FEF-F4D8-463E-8F85-2FB131112DE6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B5E1AC02-2058-4917-805D-B0C804A43121}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -524,7 +524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78D28A4-1A41-404E-8027-353BFF590944}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBD8659-C981-4EA8-B47F-A30B92146A1D}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1318,7 +1318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDD63A6-0280-42E0-896F-50BC48721B2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021974FD-F6D2-4CC5-8466-596ADA55C08C}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2128,7 +2128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA53BA07-B57A-45F1-B9D5-B32B28ACD1AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C13159-0014-40AE-A722-BD96646FCD11}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B99-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B99-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1257694-E9AA-437F-8DB4-A12A69B4737C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDC9E43D-7897-4B33-A33B-EC761B402A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B5E1AC02-2058-4917-805D-B0C804A43121}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A981E648-6295-4F02-8C5E-53EDB25A238F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -112,7 +112,7 @@
     <t>55,59%</t>
   </si>
   <si>
-    <t>Población según si dicho medicamento fue recetado por el médico en 2015 (Tasa respuesta: 0,02%)</t>
+    <t>Población según si dicho medicamento fue recetado por el médico en 2016 (Tasa respuesta: 0,02%)</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBD8659-C981-4EA8-B47F-A30B92146A1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE6F4D4-8FD4-4881-B8FC-24C02F6C8D44}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1318,7 +1318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021974FD-F6D2-4CC5-8466-596ADA55C08C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F64F2268-E8CA-4C56-B707-25049B63A9B1}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2128,7 +2128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C13159-0014-40AE-A722-BD96646FCD11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A4F141-9083-4221-A1C1-14EE53A355A9}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
